--- a/biology/Botanique/Encephalartos_laurentianus/Encephalartos_laurentianus.xlsx
+++ b/biology/Botanique/Encephalartos_laurentianus/Encephalartos_laurentianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encephalartos laurentianus est une espèce de plantes de la famille des Zamiaceae dans l'ordre des Cycadales originaire du nord de l'Angola et du sud du Congo (Zaïre), principalement le long de la rivière Kwango[2], qui suit la frontière entre l'Angola et le Zaïre.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Encephalartos laurentianus est une espèce de plantes de la famille des Zamiaceae dans l'ordre des Cycadales originaire du nord de l'Angola et du sud du Congo (Zaïre), principalement le long de la rivière Kwango, qui suit la frontière entre l'Angola et le Zaïre.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est le plus grand de tous les cycas, avec plusieurs stipes à la fois dressées et prostrées, chacune pouvant dépasser 18 m de long[3], et portant une rosette de frondes massives pennées jusqu'à huit mètres de longueur, et de 120 cm  de largeur, et avec un pétiole  de 7 à 8 cm d'épaisseur à l'endroit où il rejoint le stipe (ou le tronc). Chaque tige peut mesurer jusqu'à 120 cm d'épaisseur[4],[5],[6]. On dit également que c'est le cycas à la croissance la plus rapide, produisant jusqu'à cinq "flushs" (rosettes) de feuilles chaque année[7]. L'espèce a été découverte en 1902 par Louis Gentil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le plus grand de tous les cycas, avec plusieurs stipes à la fois dressées et prostrées, chacune pouvant dépasser 18 m de long, et portant une rosette de frondes massives pennées jusqu'à huit mètres de longueur, et de 120 cm  de largeur, et avec un pétiole  de 7 à 8 cm d'épaisseur à l'endroit où il rejoint le stipe (ou le tronc). Chaque tige peut mesurer jusqu'à 120 cm d'épaisseur. On dit également que c'est le cycas à la croissance la plus rapide, produisant jusqu'à cinq "flushs" (rosettes) de feuilles chaque année. L'espèce a été découverte en 1902 par Louis Gentil.
 </t>
         </is>
       </c>
